--- a/src/Excel/TodoListExport.xlsx
+++ b/src/Excel/TodoListExport.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE70CC9D-7CBF-4965-9713-5AE73AD3DA45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276D6A83-F050-4709-ADA4-FEB0506D423D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -15,62 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Due Date</t>
-  </si>
-  <si>
-    <t>Lam task</t>
-  </si>
-  <si>
-    <t>22/12/2021</t>
-  </si>
-  <si>
-    <t>#93c47d</t>
-  </si>
-  <si>
-    <t>Di hoc</t>
-  </si>
-  <si>
-    <t>Di ngu</t>
-  </si>
-  <si>
-    <t>#FF5733</t>
-  </si>
-  <si>
-    <t>Eating dinner</t>
-  </si>
-  <si>
-    <t>4/8/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#FD6E50 </t>
-  </si>
-  <si>
-    <t>Di an lien hoan</t>
-  </si>
-  <si>
-    <t>Fri Apr 08 2022 07:00:00 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Di choi ny</t>
-  </si>
-  <si>
-    <t>13/12/2021</t>
-  </si>
-  <si>
-    <t>DI nha nghu</t>
-  </si>
-  <si>
-    <t>Sun Dec 12 2021 07:00:00 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di pay </t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -137,13 +82,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,157 +427,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="B1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="2:2" s="1" customFormat="1" ht="24.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3">
-        <v>44907</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
